--- a/data/trans_dic/P3A_R-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P3A_R-Clase-trans_dic.xlsx
@@ -673,7 +673,7 @@
         <v>0.6770164849439017</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>0.7126587038176021</v>
+        <v>0.7126587038176022</v>
       </c>
       <c r="G4" s="5" t="n">
         <v>0.7936707746899262</v>
@@ -685,7 +685,7 @@
         <v>0.8745967845832546</v>
       </c>
       <c r="J4" s="5" t="n">
-        <v>0.9212247364047134</v>
+        <v>0.9212247364047133</v>
       </c>
       <c r="K4" s="5" t="n">
         <v>0.5514448532247374</v>
@@ -697,7 +697,7 @@
         <v>0.7654755824456249</v>
       </c>
       <c r="N4" s="5" t="n">
-        <v>0.8106262004741607</v>
+        <v>0.8106262004741608</v>
       </c>
     </row>
     <row r="5">
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.3483986560830437</v>
+        <v>0.3492650146999717</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.4597474060699874</v>
+        <v>0.4544451220052307</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.6286043186534221</v>
+        <v>0.6214114590453074</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.6728098843944322</v>
+        <v>0.6690090756552847</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.7454185325806646</v>
+        <v>0.7427211294013611</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.8014575826445189</v>
+        <v>0.7996233943949546</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.8301642742045519</v>
+        <v>0.8317974644615028</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.8889590533787023</v>
+        <v>0.890936227214543</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.5172522592899631</v>
+        <v>0.5113068701202903</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.6146558050155808</v>
+        <v>0.6127144181624231</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.736772487382753</v>
+        <v>0.7328129848594733</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.7809509926222988</v>
+        <v>0.7846189329499987</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.4426960616375658</v>
+        <v>0.4455293574818093</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.5593292167781272</v>
+        <v>0.564005969061745</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.7222110106830349</v>
+        <v>0.7232496162946168</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.7509543392168838</v>
+        <v>0.7491811253312706</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.839831753070266</v>
+        <v>0.8375504999487619</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.8882018525400727</v>
+        <v>0.8886351307058866</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.9053852862046431</v>
+        <v>0.9067606131826549</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.9433580138418786</v>
+        <v>0.9441796033854777</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.5884980101011493</v>
+        <v>0.5857645535579901</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.690228873453974</v>
+        <v>0.68858852497072</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.7977042164707809</v>
+        <v>0.7963912702778718</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.8329771041108197</v>
+        <v>0.83453852428513</v>
       </c>
     </row>
     <row r="7">
@@ -809,7 +809,7 @@
         <v>0.6519078106131954</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.6941086225725005</v>
+        <v>0.6941086225725003</v>
       </c>
       <c r="G7" s="5" t="n">
         <v>0.8390378934884233</v>
@@ -821,7 +821,7 @@
         <v>0.9338163703980827</v>
       </c>
       <c r="J7" s="5" t="n">
-        <v>0.9411038273092517</v>
+        <v>0.9411038273092516</v>
       </c>
       <c r="K7" s="5" t="n">
         <v>0.6563165262791059</v>
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.4137654958256458</v>
+        <v>0.4158783779222364</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.4876113819270655</v>
+        <v>0.4867809145245874</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.6036399216062508</v>
+        <v>0.5904593682633995</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.6465520487724056</v>
+        <v>0.645083052664605</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.7998751592504398</v>
+        <v>0.7998008754524077</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.8475833623681606</v>
+        <v>0.8504921248049945</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.902110166524421</v>
+        <v>0.9039831137823278</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.9073657844206053</v>
+        <v>0.914041159591183</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.6196012789626972</v>
+        <v>0.6182562073946849</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.6607946527673021</v>
+        <v>0.6624374756956636</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.7593218019326429</v>
+        <v>0.7600918885117606</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.7815803811689069</v>
+        <v>0.7804166211781062</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.5231376800551099</v>
+        <v>0.5199976093415783</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.5901378950074495</v>
+        <v>0.5930621231170673</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.701429295753848</v>
+        <v>0.6972210866653954</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.7372850442447532</v>
+        <v>0.7355058843727946</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.8750287283205116</v>
+        <v>0.875885379374723</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.9238848568254959</v>
+        <v>0.922810458635519</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.9574584279161458</v>
+        <v>0.9557258757476672</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.9596926466691384</v>
+        <v>0.9603610551805795</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.6905892953630471</v>
+        <v>0.6909139946200187</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.7324750041960195</v>
+        <v>0.7344631108025123</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.8191892676259904</v>
+        <v>0.8213294748887177</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.8360146910419094</v>
+        <v>0.8345071615005087</v>
       </c>
     </row>
     <row r="10">
@@ -957,7 +957,7 @@
         <v>0.9132050337156287</v>
       </c>
       <c r="J10" s="5" t="n">
-        <v>0.9108231617800822</v>
+        <v>0.910823161780082</v>
       </c>
       <c r="K10" s="5" t="n">
         <v>0.4685947909389795</v>
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.3045356005616024</v>
+        <v>0.2993754099873863</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.43443427754318</v>
+        <v>0.4346262821988376</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.5090419172125078</v>
+        <v>0.5113766256548967</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.6071319662324205</v>
+        <v>0.6020909425056674</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.8218792026376868</v>
+        <v>0.8230014990070533</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.8086567881615594</v>
+        <v>0.8048114638940826</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.8588488227661553</v>
+        <v>0.8623750624611377</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.8510425578388687</v>
+        <v>0.8441283468679971</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.4306909415082671</v>
+        <v>0.4318001842022742</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.5542556161058996</v>
+        <v>0.55279620768143</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.6035107122945054</v>
+        <v>0.6032130559760698</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.6851380508027025</v>
+        <v>0.6826716464481289</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.3831223042192214</v>
+        <v>0.381896515685491</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.5157201549851423</v>
+        <v>0.5195677373119852</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.5979810522626626</v>
+        <v>0.5981452814061897</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.6965532144188222</v>
+        <v>0.6939334750196187</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.9240103726752769</v>
+        <v>0.9236451943111776</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.8971715241219577</v>
+        <v>0.896152901727445</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.9496147517207291</v>
+        <v>0.9513954732435047</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.945543509187495</v>
+        <v>0.9467695878673034</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.5054907665855888</v>
+        <v>0.5097906200246476</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.6189045009428435</v>
+        <v>0.6199683483362485</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.6772278458449678</v>
+        <v>0.6786112784421132</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.7582864057276716</v>
+        <v>0.7560064955099876</v>
       </c>
     </row>
     <row r="13">
@@ -1093,7 +1093,7 @@
         <v>0.9019420135740057</v>
       </c>
       <c r="J13" s="5" t="n">
-        <v>0.947913921623178</v>
+        <v>0.9479139216231781</v>
       </c>
       <c r="K13" s="5" t="n">
         <v>0.5263995997958053</v>
@@ -1105,7 +1105,7 @@
         <v>0.6879659853348675</v>
       </c>
       <c r="N13" s="5" t="n">
-        <v>0.7887238427945069</v>
+        <v>0.7887238427945071</v>
       </c>
     </row>
     <row r="14">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.3055897971492661</v>
+        <v>0.3039601024892988</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.4057629655579071</v>
+        <v>0.4059718976558473</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.5041327376294266</v>
+        <v>0.5022962920960815</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.637602903549073</v>
+        <v>0.6347809606105257</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.8337157348761534</v>
+        <v>0.8355298099755084</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.8664842681427003</v>
+        <v>0.8672509006317906</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.8783057356807318</v>
+        <v>0.8804195692455925</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.9321756889203737</v>
+        <v>0.9326274668480765</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.5045198582555159</v>
+        <v>0.5019407035082151</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.5949710295494433</v>
+        <v>0.5928843727989699</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.6660533360421991</v>
+        <v>0.6665687531981562</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.7681373332081547</v>
+        <v>0.7699223409331645</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.3584814879508467</v>
+        <v>0.3595417681287942</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.466875765022247</v>
+        <v>0.4659607283263053</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.5638856922245749</v>
+        <v>0.5630754317588089</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.6953551884658332</v>
+        <v>0.6977402031103542</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.8857009448593107</v>
+        <v>0.8873802718677392</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.9131940517685263</v>
+        <v>0.9138533822659057</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.9211079179637862</v>
+        <v>0.9234488697291291</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.9606876960302111</v>
+        <v>0.9597957640006194</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.5520105944785541</v>
+        <v>0.5467552143144163</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.6399954451773812</v>
+        <v>0.6407103086640161</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.7096949568647363</v>
+        <v>0.7095377957184194</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.8070336061353681</v>
+        <v>0.8094777520792792</v>
       </c>
     </row>
     <row r="16">
@@ -1217,7 +1217,7 @@
         <v>0.4604034307841001</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>0.6267871652218885</v>
+        <v>0.6267871652218884</v>
       </c>
       <c r="G16" s="5" t="n">
         <v>0.9071571681852513</v>
@@ -1229,7 +1229,7 @@
         <v>0.9143032409651328</v>
       </c>
       <c r="J16" s="5" t="n">
-        <v>0.9414989135254075</v>
+        <v>0.9414989135254076</v>
       </c>
       <c r="K16" s="5" t="n">
         <v>0.6975506277668578</v>
@@ -1241,7 +1241,7 @@
         <v>0.7068369785720251</v>
       </c>
       <c r="N16" s="5" t="n">
-        <v>0.8137157594672192</v>
+        <v>0.813715759467219</v>
       </c>
     </row>
     <row r="17">
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.3060057557706569</v>
+        <v>0.3094792162733064</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.3626111710517316</v>
+        <v>0.3629215044385889</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.421428776202192</v>
+        <v>0.4232457431709786</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.5827450295938268</v>
+        <v>0.580573266643804</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.8812968888741959</v>
+        <v>0.8813626799869758</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.8464425701121672</v>
+        <v>0.8425102660422955</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.8893330954078834</v>
+        <v>0.8917903330913481</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.9289303821267357</v>
+        <v>0.9278453911564375</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.6667849088556743</v>
+        <v>0.6662206988976752</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.6577370005055289</v>
+        <v>0.6569142034137078</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.6800749111762774</v>
+        <v>0.6810955621489236</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.7923908493646443</v>
+        <v>0.7932431342994066</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.4115886033284182</v>
+        <v>0.4150166289524262</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.4522228058639154</v>
+        <v>0.4492450434747025</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.5015753797104741</v>
+        <v>0.4978402319358383</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.6727492845902656</v>
+        <v>0.6699664646995132</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.9304839354117374</v>
+        <v>0.9298502125551593</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.8973570462823339</v>
+        <v>0.8954247200337622</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.9331303705165126</v>
+        <v>0.9352821182213521</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.9528900325910614</v>
+        <v>0.953060173635613</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.7299342739693162</v>
+        <v>0.7287095494681946</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.709150768398382</v>
+        <v>0.709296635989014</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.7303324708433622</v>
+        <v>0.732442051292111</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.8332445291723637</v>
+        <v>0.8345459511016908</v>
       </c>
     </row>
     <row r="19">
@@ -1365,7 +1365,7 @@
         <v>0.7976870049942674</v>
       </c>
       <c r="J19" s="5" t="n">
-        <v>0.8096521951877105</v>
+        <v>0.8096521951877106</v>
       </c>
       <c r="K19" s="5" t="n">
         <v>0.6725147364154193</v>
@@ -1388,40 +1388,40 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.08437156945053174</v>
+        <v>0.0811664215002068</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.09806878790729903</v>
+        <v>0.09987222096128955</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.2011074995941462</v>
+        <v>0.2032292633254744</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.350699058579036</v>
+        <v>0.3426141280147866</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.7786736039718746</v>
+        <v>0.7820902189776145</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.7207429119306822</v>
+        <v>0.7209127070615717</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.7699887141185525</v>
+        <v>0.7711759705304532</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.7759208241076798</v>
+        <v>0.7766080358408659</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.648629330954051</v>
+        <v>0.6490580437098959</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>0.6017071972943943</v>
+        <v>0.599545659274462</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>0.6572512704050536</v>
+        <v>0.6539374681749914</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>0.6917064648892749</v>
+        <v>0.6916759852602274</v>
       </c>
     </row>
     <row r="21">
@@ -1432,40 +1432,40 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.1582744683741541</v>
+        <v>0.1595944069873247</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.1808072557149365</v>
+        <v>0.185163110078161</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.3109740452597015</v>
+        <v>0.3059291046607746</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.5385975556214986</v>
+        <v>0.5471053652402997</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.825822029312015</v>
+        <v>0.8267504418096744</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.7730523558374353</v>
+        <v>0.771718813481775</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.8218220299372051</v>
+        <v>0.821382737701671</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.8383939594004803</v>
+        <v>0.8375903211675034</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.695955156512622</v>
+        <v>0.6959255395467454</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>0.6555015522312103</v>
+        <v>0.6548157443901679</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>0.7095777123807909</v>
+        <v>0.7075173386870846</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>0.7648644531422177</v>
+        <v>0.7613084370128472</v>
       </c>
     </row>
     <row r="22">
@@ -1513,7 +1513,7 @@
         <v>0.7061454118050857</v>
       </c>
       <c r="N22" s="5" t="n">
-        <v>0.7844496394001852</v>
+        <v>0.7844496394001853</v>
       </c>
     </row>
     <row r="23">
@@ -1524,40 +1524,40 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.3249471896990451</v>
+        <v>0.3239030058371775</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.4190932597778766</v>
+        <v>0.420359538914541</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.5153684772630625</v>
+        <v>0.5139886070322025</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.6361183810886513</v>
+        <v>0.6368976151871211</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.8282519874973445</v>
+        <v>0.8276680863089116</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.8228318557343528</v>
+        <v>0.8218624181788544</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.8623812082349964</v>
+        <v>0.8612823752445044</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.8974897080247828</v>
+        <v>0.8952966192207911</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.5833240861935437</v>
+        <v>0.5829987432131152</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>0.6287737961583155</v>
+        <v>0.6290727937030266</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>0.6937407363176655</v>
+        <v>0.6948226757973482</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>0.7732595879621189</v>
+        <v>0.7725177088569254</v>
       </c>
     </row>
     <row r="24">
@@ -1568,40 +1568,40 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.3585518802127755</v>
+        <v>0.3589537355767892</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.4536680146434816</v>
+        <v>0.4552151926928297</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.5489147798387692</v>
+        <v>0.5480447151791813</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.6738488709621302</v>
+        <v>0.6724037630072535</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.8539446209762382</v>
+        <v>0.8534099623733095</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.8479684776440316</v>
+        <v>0.8476776979456987</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.8853281311234834</v>
+        <v>0.8848472684759592</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.9180260720165735</v>
+        <v>0.9167460642617103</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.6074192569810977</v>
+        <v>0.6075439249784071</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>0.651288842890533</v>
+        <v>0.6528149961335572</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>0.7168576464129994</v>
+        <v>0.7174506288608593</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>0.7949187447364022</v>
+        <v>0.7950815861976228</v>
       </c>
     </row>
     <row r="25">
@@ -1874,40 +1874,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>164756</v>
+        <v>165165</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>201007</v>
+        <v>198688</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>269117</v>
+        <v>266038</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>370461</v>
+        <v>368368</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>228605</v>
+        <v>227778</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>252022</v>
+        <v>251445</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>288113</v>
+        <v>288679</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>433576</v>
+        <v>434540</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>403237</v>
+        <v>398602</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>462015</v>
+        <v>460556</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>571127</v>
+        <v>568058</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>810902</v>
+        <v>814711</v>
       </c>
     </row>
     <row r="7">
@@ -1918,40 +1918,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>209348</v>
+        <v>210688</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>244545</v>
+        <v>246590</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>309192</v>
+        <v>309637</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>413489</v>
+        <v>412513</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>257560</v>
+        <v>256860</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>279299</v>
+        <v>279435</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>314218</v>
+        <v>314696</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>460108</v>
+        <v>460508</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>458778</v>
+        <v>456647</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>518821</v>
+        <v>517588</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>618360</v>
+        <v>617342</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>864923</v>
+        <v>866545</v>
       </c>
     </row>
     <row r="8">
@@ -2054,40 +2054,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>151825</v>
+        <v>152600</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>204210</v>
+        <v>203862</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>227709</v>
+        <v>222737</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>312109</v>
+        <v>311400</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>297446</v>
+        <v>297418</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>286492</v>
+        <v>287476</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>335831</v>
+        <v>336529</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>383945</v>
+        <v>386770</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>457761</v>
+        <v>456767</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>500095</v>
+        <v>501338</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>569112</v>
+        <v>569689</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>708011</v>
+        <v>706957</v>
       </c>
     </row>
     <row r="11">
@@ -2098,40 +2098,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>191957</v>
+        <v>190805</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>247148</v>
+        <v>248373</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>264598</v>
+        <v>263011</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>355909</v>
+        <v>355050</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>325393</v>
+        <v>325711</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>312283</v>
+        <v>311920</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>356436</v>
+        <v>355791</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>406087</v>
+        <v>406370</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>510207</v>
+        <v>510447</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>554343</v>
+        <v>555848</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>613982</v>
+        <v>615586</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>757321</v>
+        <v>755956</v>
       </c>
     </row>
     <row r="12">
@@ -2234,40 +2234,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>165177</v>
+        <v>162378</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>273439</v>
+        <v>273560</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>264750</v>
+        <v>265964</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>286331</v>
+        <v>283953</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>137897</v>
+        <v>138085</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>210355</v>
+        <v>209355</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>142675</v>
+        <v>143260</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>159085</v>
+        <v>157792</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>305864</v>
+        <v>306652</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>493035</v>
+        <v>491737</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>414139</v>
+        <v>413935</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>451191</v>
+        <v>449567</v>
       </c>
     </row>
     <row r="15">
@@ -2278,40 +2278,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>207801</v>
+        <v>207136</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>324602</v>
+        <v>327024</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>311006</v>
+        <v>311092</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>328503</v>
+        <v>327267</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>155032</v>
+        <v>154971</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>233380</v>
+        <v>233115</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>157753</v>
+        <v>158049</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>176750</v>
+        <v>176979</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>358985</v>
+        <v>362039</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>550543</v>
+        <v>551489</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>464725</v>
+        <v>465675</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>499362</v>
+        <v>497861</v>
       </c>
     </row>
     <row r="16">
@@ -2414,40 +2414,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>378422</v>
+        <v>376404</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>470283</v>
+        <v>470525</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>577345</v>
+        <v>575242</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>721666</v>
+        <v>718472</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>594242</v>
+        <v>595535</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>662562</v>
+        <v>663149</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>721852</v>
+        <v>723590</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>802800</v>
+        <v>803189</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>984368</v>
+        <v>979336</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>1144526</v>
+        <v>1140512</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>1310189</v>
+        <v>1311203</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>1530939</v>
+        <v>1534497</v>
       </c>
     </row>
     <row r="19">
@@ -2458,40 +2458,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>443920</v>
+        <v>445233</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>541113</v>
+        <v>540053</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>645776</v>
+        <v>644848</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>787033</v>
+        <v>789732</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>631295</v>
+        <v>632492</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>698279</v>
+        <v>698783</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>757030</v>
+        <v>758954</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>827355</v>
+        <v>826587</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>1077027</v>
+        <v>1066773</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>1231137</v>
+        <v>1232513</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>1396036</v>
+        <v>1395727</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>1608462</v>
+        <v>1613333</v>
       </c>
     </row>
     <row r="20">
@@ -2594,40 +2594,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>107272</v>
+        <v>108489</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>184764</v>
+        <v>184922</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>261583</v>
+        <v>262711</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>330978</v>
+        <v>329745</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>501239</v>
+        <v>501277</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>644585</v>
+        <v>641590</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>655696</v>
+        <v>657508</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>771802</v>
+        <v>770900</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>612980</v>
+        <v>612461</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>836022</v>
+        <v>834976</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>923539</v>
+        <v>924925</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>1108407</v>
+        <v>1109600</v>
       </c>
     </row>
     <row r="23">
@@ -2638,40 +2638,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>144284</v>
+        <v>145486</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>230424</v>
+        <v>228907</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>311331</v>
+        <v>309012</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>382097</v>
+        <v>380517</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>529215</v>
+        <v>528854</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>683357</v>
+        <v>681886</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>687988</v>
+        <v>689574</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>791709</v>
+        <v>791850</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>671034</v>
+        <v>669908</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>901372</v>
+        <v>901557</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>991789</v>
+        <v>994653</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>1165554</v>
+        <v>1167375</v>
       </c>
     </row>
     <row r="24">
@@ -2774,40 +2774,40 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>25160</v>
+        <v>24204</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>26173</v>
+        <v>26654</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>57378</v>
+        <v>57983</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>83196</v>
+        <v>81278</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>970017</v>
+        <v>974273</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>799557</v>
+        <v>799745</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>833147</v>
+        <v>834432</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>655095</v>
+        <v>655675</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>1001438</v>
+        <v>1002100</v>
       </c>
       <c r="L26" s="6" t="n">
-        <v>828089</v>
+        <v>825115</v>
       </c>
       <c r="M26" s="6" t="n">
-        <v>898683</v>
+        <v>894152</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>748087</v>
+        <v>748054</v>
       </c>
     </row>
     <row r="27">
@@ -2818,40 +2818,40 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>47198</v>
+        <v>47591</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>48254</v>
+        <v>49417</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>88724</v>
+        <v>87285</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>127770</v>
+        <v>129789</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>1028751</v>
+        <v>1029908</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>857586</v>
+        <v>856107</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>889232</v>
+        <v>888757</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>707840</v>
+        <v>707162</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>1074506</v>
+        <v>1074460</v>
       </c>
       <c r="L27" s="6" t="n">
-        <v>902123</v>
+        <v>901179</v>
       </c>
       <c r="M27" s="6" t="n">
-        <v>970230</v>
+        <v>967413</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>827208</v>
+        <v>823362</v>
       </c>
     </row>
     <row r="28">
@@ -2954,40 +2954,40 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>1062352</v>
+        <v>1058939</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>1433655</v>
+        <v>1437987</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>1740235</v>
+        <v>1735576</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>2189515</v>
+        <v>2192197</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>2794168</v>
+        <v>2792198</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>2919509</v>
+        <v>2916070</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>3041303</v>
+        <v>3037428</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>3261610</v>
+        <v>3253640</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>3874952</v>
+        <v>3872791</v>
       </c>
       <c r="L30" s="6" t="n">
-        <v>4381909</v>
+        <v>4383993</v>
       </c>
       <c r="M30" s="6" t="n">
-        <v>4789111</v>
+        <v>4796580</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>5471693</v>
+        <v>5466443</v>
       </c>
     </row>
     <row r="31">
@@ -2998,40 +2998,40 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>1172217</v>
+        <v>1173530</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>1551930</v>
+        <v>1557223</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>1853510</v>
+        <v>1850572</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>2319383</v>
+        <v>2314409</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>2880844</v>
+        <v>2879040</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>3008697</v>
+        <v>3007666</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>3122228</v>
+        <v>3120532</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>3336243</v>
+        <v>3331591</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>4035013</v>
+        <v>4035841</v>
       </c>
       <c r="L31" s="6" t="n">
-        <v>4538816</v>
+        <v>4549451</v>
       </c>
       <c r="M31" s="6" t="n">
-        <v>4948694</v>
+        <v>4952788</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>5624956</v>
+        <v>5626109</v>
       </c>
     </row>
     <row r="32">
